--- a/public/templates/exported_file.xlsx
+++ b/public/templates/exported_file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>PURCHASE ORDER #PF061#1</t>
   </si>
@@ -29,7 +29,7 @@
     <t>2022-10-03</t>
   </si>
   <si>
-    <t>customer 2</t>
+    <t>customer 1</t>
   </si>
   <si>
     <t>name</t>
@@ -71,58 +71,64 @@
     <t>Total , USD</t>
   </si>
   <si>
+    <t>parts six</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>SWIFT:          swift</t>
+  </si>
+  <si>
+    <t>IBAN:             iban</t>
+  </si>
+  <si>
+    <t>Bank address  baddress</t>
+  </si>
+  <si>
+    <t>Acc. No.        bank</t>
+  </si>
+  <si>
+    <t>Beneficiary: name</t>
+  </si>
+  <si>
+    <t>Wire instructions:</t>
+  </si>
+  <si>
+    <t>USD 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total PO amount </t>
+  </si>
+  <si>
+    <t>USD 0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>%100 pin life</t>
+  </si>
+  <si>
+    <t>Delivery: UAE SHJ</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
     <t>parts one</t>
   </si>
   <si>
     <t>AR</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>NOTE:</t>
-  </si>
-  <si>
-    <t>Delivery: UAE SHJ</t>
-  </si>
-  <si>
-    <t>%100 pin life</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>USD 400</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>USD 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total PO amount </t>
-  </si>
-  <si>
-    <t>Wire instructions:</t>
-  </si>
-  <si>
-    <t>Beneficiary: name</t>
-  </si>
-  <si>
-    <t>Acc. No.        bank</t>
-  </si>
-  <si>
-    <t>Bank address  baddress</t>
-  </si>
-  <si>
-    <t>IBAN:             iban</t>
-  </si>
-  <si>
-    <t>SWIFT:          swift</t>
   </si>
 </sst>
 </file>
@@ -835,7 +841,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6134100" cy="1219200"/>
@@ -865,7 +871,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1447800" cy="1504950"/>
@@ -1184,7 +1190,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="73" view="pageLayout" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B27" sqref="B27:B28"/>
@@ -1201,6 +1207,12 @@
     <col min="7" max="7" width="13.85546875" customWidth="true" style="0"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8">
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="H2"/>
+    </row>
     <row r="3" spans="1:8" customHeight="1" ht="18.75">
       <c r="B3" s="76" t="s">
         <v>0</v>
@@ -1209,8 +1221,11 @@
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:8" customHeight="1" ht="15.75"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" customHeight="1" ht="15.75">
+      <c r="H4"/>
+    </row>
     <row r="5" spans="1:8" customHeight="1" ht="15.75">
       <c r="A5" s="68" t="s">
         <v>1</v>
@@ -1225,6 +1240,7 @@
       <c r="G5" s="45" t="s">
         <v>3</v>
       </c>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" customHeight="1" ht="18.75">
       <c r="A6" s="63" t="s">
@@ -1271,6 +1287,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="59"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" customHeight="1" ht="14.45">
       <c r="A10" s="39"/>
@@ -1326,7 +1343,7 @@
     </row>
     <row r="14" spans="1:8" customHeight="1" ht="32.25" s="23" customFormat="1">
       <c r="A14" s="33">
-        <v>1111</v>
+        <v>6666</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>18</v>
@@ -1338,194 +1355,227 @@
         <v>20</v>
       </c>
       <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>100</v>
+      </c>
+      <c r="G14" s="28">
+        <v>100</v>
+      </c>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="32.25">
+      <c r="A15" s="33">
+        <v>1111</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="30">
         <v>2</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F15" s="29">
         <v>200</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G15" s="28">
         <v>400</v>
       </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" customHeight="1" ht="16.5" s="23" customFormat="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" customHeight="1" ht="16.5">
-      <c r="A16" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="16.5" s="23" customFormat="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" customHeight="1" ht="15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" customHeight="1" ht="16.5">
+      <c r="A17" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="22"/>
       <c r="C17" s="20"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" customHeight="1" ht="19.5">
-      <c r="A18" s="65"/>
-      <c r="B18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="18"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" customHeight="1" ht="15">
+      <c r="A18" s="66"/>
+      <c r="B18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="20"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" customHeight="1" ht="19.5">
+      <c r="A19" s="65"/>
+      <c r="B19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19"/>
     </row>
     <row r="20" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="49" t="s">
-        <v>25</v>
-      </c>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20"/>
     </row>
     <row r="21" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" customHeight="1" ht="15.75">
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" customHeight="1" ht="16.5">
+      <c r="A23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" customHeight="1" ht="15.75">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" customHeight="1" ht="16.5">
-      <c r="A22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" customHeight="1" ht="15.75">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
+      <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="75"/>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="73"/>
+      <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="57"/>
+      <c r="B28" s="57" t="s">
+        <v>23</v>
+      </c>
       <c r="D28" s="75"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
+      <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
+      <c r="B29" s="57"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
+      <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
+      <c r="H30"/>
     </row>
     <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="73"/>
+      <c r="H31"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="C32" s="2"/>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
+      <c r="H32"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
+      <c r="C33" s="2"/>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
-      <c r="H33" s="74"/>
+      <c r="H33"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="74"/>
@@ -1546,14 +1596,13 @@
       <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="A36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="73"/>
@@ -1635,17 +1684,27 @@
       <c r="G44" s="73"/>
       <c r="H44" s="73"/>
     </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A36:H44"/>
-    <mergeCell ref="E25:G35"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A37:H45"/>
+    <mergeCell ref="E26:G36"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="F6:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="F10:G12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A6:B6"/>

--- a/public/templates/exported_file.xlsx
+++ b/public/templates/exported_file.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
-    <t>PURCHASE ORDER #PF071CN</t>
+    <t>PURCHASE ORDER #PF072CN</t>
   </si>
   <si>
     <t>Supplier</t>
@@ -129,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -138,6 +138,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -147,6 +148,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="0"/>
@@ -156,6 +158,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -174,6 +177,25 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -224,91 +246,118 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -317,12 +366,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -334,6 +382,10 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -342,26 +394,41 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="118">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -369,23 +436,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -395,54 +456,28 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -458,21 +493,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="9" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="9" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="9" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -512,204 +539,170 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="5"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" indent="5"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="15" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="0" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false" indent="5"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false" indent="5"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,7 +824,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -839,44 +832,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -904,14 +897,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -939,6 +949,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1901,7 +1928,6 @@
       <c r="H65" s="114"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="C51:H59"/>
     <mergeCell ref="B26:B28"/>
@@ -1933,7 +1959,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.59375" right="0.11811023622047" top="0.58333333333333" bottom="0.28125" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
